--- a/logic-file/pt-logic.xlsx
+++ b/logic-file/pt-logic.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\SkyFitness\logic-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E278D3A-6A36-4E34-AF1F-AAA376571F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB03F81-FB2A-414B-BE4D-F826107DAE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5236" yWindow="3692" windowWidth="18851" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -499,10 +510,10 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.88671875" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
@@ -551,7 +562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -562,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5">
-        <v>6000000</v>
+        <v>6500000</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
@@ -587,7 +598,7 @@
       </c>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
@@ -615,7 +626,7 @@
       </c>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6"/>
@@ -643,7 +654,7 @@
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
@@ -671,7 +682,7 @@
       </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="6"/>
@@ -699,7 +710,7 @@
       </c>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -735,7 +746,7 @@
       </c>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
@@ -763,7 +774,7 @@
       </c>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
@@ -791,7 +802,7 @@
       </c>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
@@ -819,7 +830,7 @@
       </c>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
@@ -847,7 +858,7 @@
       </c>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -885,7 +896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -919,7 +930,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
@@ -945,7 +956,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
@@ -971,7 +982,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
@@ -997,7 +1008,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
